--- a/medicine/Enfance/Jean-Claude_Belfiore/Jean-Claude_Belfiore.xlsx
+++ b/medicine/Enfance/Jean-Claude_Belfiore/Jean-Claude_Belfiore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Claude Belfiore, né le 8 mai 1955 à Nantes, en France, est un écrivain français, auteur de roman policier et de quelques ouvrages historiques.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études au lycée Georges-Clemenceau de Nantes, à l'université de Nantes, puis à l'université de Haute-Bretagne.
 Helléniste, latiniste et italianiste, il vit actuellement à Nantes.
@@ -547,17 +561,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans policiers
-Une femme finie, Fleuve noir, coll. « Spécial Police » no 1893 (1984)  (ISBN 2-265-02742-1)
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Une femme finie, Fleuve noir, coll. « Spécial Police » no 1893 (1984)  (ISBN 2-265-02742-1)
 Paradis du crime, Fleuve noir, coll. « Spécial Police » no 1993 (1986)  (ISBN 2-265-03207-7)
 Crimes de polichinelles, Fleuve noir, coll. « Spécial Police » no 2055 (1987)  (ISBN 2-265-03602-1)
 Toxines sur Nantes, A. Bargain, coll. « Enquêtes et suspense » (2012)  (ISBN 978-2-35550-119-7)
 À poings fermés, Moissons Noires (2018)  (ISBN 978-2-37109-072-9)
 Le Pendu de Notre-Dame de Nantes, Geste Éditions, coll. « Le Geste Noir » (2018)  (ISBN 979-10-353-0142-2)
 Une si grande souffrance, Les Presses Littéraires, coll. « Crimes et châtiments » (2020)  (ISBN 979-1-031-00669-7)
-Mourir à poings fermés, Independently published (2023)  (ISBN 979-8863481807)
-Ouvrages historiques
-Dictionnaire de mythologie grecque et romaine, Éditions Larousse (2003)  (ISBN 2-03-505337-4), réédition sous le titre Grand dictionnaire de la mythologie grecque et romaine, Éditions Larousse (2010)  (ISBN 978-2-03-585638-8) ; (2016)  (ISBN 978-2-03-593256-3). Traduit en hongrois (2008) et en japonais (2019).
+Mourir à poings fermés, Independently published (2023)  (ISBN 979-8863481807)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-Claude_Belfiore</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Claude_Belfiore</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrages historiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dictionnaire de mythologie grecque et romaine, Éditions Larousse (2003)  (ISBN 2-03-505337-4), réédition sous le titre Grand dictionnaire de la mythologie grecque et romaine, Éditions Larousse (2010)  (ISBN 978-2-03-585638-8) ; (2016)  (ISBN 978-2-03-593256-3). Traduit en hongrois (2008) et en japonais (2019).
 Dictionnaire des croyances et symboles de l'Antiquité, Éditions Larousse, coll. « In extenso » (2010)  (ISBN 978-2-03-583943-5), réédition Le Grand Livre du mois (2010)  (ISBN 978-2-286-06000-8)
 Êtes-vous fort en mythologie ?, Éditions Larousse, coll. « Les Petits Précis de culture générale » (2011)  (ISBN 978-2-03-586380-5), réédition France Loisirs (2012)  (ISBN 978-2-298-06259-5)
 Hannibal, une incroyable destinée, Éditions Larousse, coll. « L'histoire comme un roman » (2011)  (ISBN 978-2-03-584191-9)
@@ -565,11 +618,79 @@
 La mythologie pour ceux qui ont tout oublié, Éditions Larousse, coll. « Pour ceux qui ont tout oublié » (2017)  (ISBN 978-2-03-593651-6)
 Les Gladiateurs et les Jeux de sang dans l'Antiquité romaine, Independently published (2023)  (ISBN 979-8393175993)
 Grand livre de la mythologie et des légendes nordiques, Independently published (2023)
-Jason et les Argonautes ou les tribulations d’une bande de ratés, Independently published (2024)  (ISBN 979-8876224453)
-Littérature d'enfance et de jeunesse
-L'Île de la révolte, Bayard Presse, DLire (mai 2001) (en collaboration avec Laurent Hirn)
-Guide touristique
-111 Lieux à Nantes à ne pas manquer, Emons, 10 juin 2021,  (ISBN 978-3-74-081052-8)</t>
+Jason et les Argonautes ou les tribulations d’une bande de ratés, Independently published (2024)  (ISBN 979-8876224453)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Claude_Belfiore</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Claude_Belfiore</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'Île de la révolte, Bayard Presse, DLire (mai 2001) (en collaboration avec Laurent Hirn)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Claude_Belfiore</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Claude_Belfiore</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Guide touristique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>111 Lieux à Nantes à ne pas manquer, Emons, 10 juin 2021,  (ISBN 978-3-74-081052-8)</t>
         </is>
       </c>
     </row>
